--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1035008.671929969</v>
+        <v>-1037606.503502605</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>257.2403189156676</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>277.6938520441186</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>91.64559662317212</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>136.1812963327086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>200.1627776403526</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>255.8403303884456</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>144.7520933485931</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.72242868747905</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>322.3633157507832</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298098</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>103.3286643421945</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605715268</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343133</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>158.2081142387093</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881292</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923952</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663627</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725558</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220288</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652589</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.7614503848</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.798933444388</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.500622424734</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.361290448922</v>
+        <v>1617.332751740275</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4398,13 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,19 +4413,19 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>815.1145481251087</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494.0245808582381</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="C4" t="n">
-        <v>325.0883979303312</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D4" t="n">
-        <v>325.0883979303312</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>722.0141317562554</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>494.0245808582381</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>494.0245808582381</v>
+        <v>864.3549109336325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765518</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825107</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1111.554341825107</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>725.7660892268623</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2736.118358115654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541191</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335304</v>
+        <v>1277.797355536723</v>
       </c>
       <c r="W7" t="n">
-        <v>782.492950298343</v>
+        <v>1277.797355536723</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003256</v>
+        <v>1049.807804638706</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.8443805240842</v>
+        <v>829.0152254951761</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729873</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>1532.572829196572</v>
       </c>
       <c r="E8" t="n">
-        <v>768.692212524878</v>
+        <v>1146.784576598328</v>
       </c>
       <c r="F8" t="n">
-        <v>761.7467117756745</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409298</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409298</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996962</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414569</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005523</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799637</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762676</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409298</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409298</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,19 +5036,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327533</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204176</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380245</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>340.3917814401141</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2220.111203833967</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2000.509738856908</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1711.434512201106</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1456.750023995219</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1167.332853958259</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>939.3433030602412</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>718.550723916711</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075786</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371523</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715721</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509834</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107403</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.320787451601</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179085</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4311299055728</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5180363231797</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252693</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401492</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.22696873374</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7582,25 +7582,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319333</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656827</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150032</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942664</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580123</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384025</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
   </sheetData>
@@ -8061,22 +8061,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.454437538929696</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>217.2820227965956</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.35983168384669</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>112.4907817628015</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>108.544086611935</v>
       </c>
     </row>
     <row r="3">
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>150.3417020038824</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>146.8157004124971</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924085</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.81817176293526</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.3744592024051</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092559</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896831</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642495</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26338,22 +26338,22 @@
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
+        <v>205260.4424660712</v>
+      </c>
+      <c r="N2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="N2" t="n">
-        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605451</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008438</v>
+        <v>55720.99847008431</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312015</v>
+        <v>89134.17909312023</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312018</v>
@@ -26430,28 +26430,28 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
+        <v>9947.144321768874</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
-      <c r="H4" t="n">
-        <v>9947.144321768914</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768921</v>
-      </c>
       <c r="J4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176887</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486239</v>
       </c>
       <c r="M4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486238</v>
+        <v>17938.00358486242</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486237</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1094158.413591527</v>
+        <v>-1094518.496607244</v>
       </c>
       <c r="C6" t="n">
-        <v>-195246.4188005487</v>
+        <v>-195246.4188005485</v>
       </c>
       <c r="D6" t="n">
-        <v>8192.322811557504</v>
+        <v>8192.3228115573</v>
       </c>
       <c r="E6" t="n">
-        <v>-234695.4860305296</v>
+        <v>-234730.2239559655</v>
       </c>
       <c r="F6" t="n">
-        <v>90716.97577682558</v>
+        <v>90682.23785138989</v>
       </c>
       <c r="G6" t="n">
-        <v>90716.97577682554</v>
+        <v>90682.23785138979</v>
       </c>
       <c r="H6" t="n">
-        <v>90716.97577682549</v>
+        <v>90682.23785138997</v>
       </c>
       <c r="I6" t="n">
-        <v>90716.97577682546</v>
+        <v>90682.23785138983</v>
       </c>
       <c r="J6" t="n">
-        <v>-76888.20203315699</v>
+        <v>-76922.93995859264</v>
       </c>
       <c r="K6" t="n">
-        <v>41606.8830707711</v>
+        <v>41572.14514533534</v>
       </c>
       <c r="L6" t="n">
-        <v>64730.60503366156</v>
+        <v>64730.60503366165</v>
       </c>
       <c r="M6" t="n">
-        <v>-896.7049082186277</v>
+        <v>-896.7049082183803</v>
       </c>
       <c r="N6" t="n">
-        <v>84158.32302729299</v>
+        <v>84158.32302729313</v>
       </c>
       <c r="O6" t="n">
         <v>84158.32302729311</v>
       </c>
       <c r="P6" t="n">
-        <v>84158.32302729308</v>
+        <v>84158.32302729317</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27036,7 +27036,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>137.4010188240873</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.09238371494766</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>88.18638355876517</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27619,19 +27619,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>206.7132681013588</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>113.8907702900234</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>107.3855499752349</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8622246646157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,16 +27856,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>84.51272999092822</v>
       </c>
       <c r="G8" t="n">
-        <v>58.82417042364369</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>45.2868086760179</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>567.7870775946151</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33676,7 +33676,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,22 +34781,22 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0158803980277</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>122.9351598697843</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010436</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,16 +35729,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>425.1908331501707</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
